--- a/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at CurrentA_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross Domestic Product by Kind of Economic Activity at CurrentA_historical.xlsx
@@ -1,102 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross Domestic Product by Kind" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross Domestic Product by Kind" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>AgricultureRM</t>
-  </si>
-  <si>
-    <t>Mining and QuarryingRM</t>
-  </si>
-  <si>
-    <t>ManufacturingRM</t>
-  </si>
-  <si>
-    <t>ConstructionRM</t>
-  </si>
-  <si>
-    <t>Electricity and GasRM</t>
-  </si>
-  <si>
-    <t>Water, Sewerage and Waste ManagementRM</t>
-  </si>
-  <si>
-    <t>Wholesale TradeRM</t>
-  </si>
-  <si>
-    <t>Retail TradeRM</t>
-  </si>
-  <si>
-    <t>AccomodationRM</t>
-  </si>
-  <si>
-    <t>Food and BeverageRM</t>
-  </si>
-  <si>
-    <t>Transport and StorageRM</t>
-  </si>
-  <si>
-    <t>Infor &amp; CommunicationRM</t>
-  </si>
-  <si>
-    <t>FinanceRM</t>
-  </si>
-  <si>
-    <t>InsuranceRM</t>
-  </si>
-  <si>
-    <t>Government ServicesRM</t>
-  </si>
-  <si>
-    <t>Other ServicesRM</t>
-  </si>
-  <si>
-    <t>Import DutiesRM</t>
-  </si>
-  <si>
-    <t>GDP at Purchasers' ValueRM</t>
-  </si>
-  <si>
-    <t>ServicesRM</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -130,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -427,1929 +353,2727 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AgricultureRM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
         <v>16185</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>18540</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>19028</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>18120</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>19398</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>21958</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>23741</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>26702</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>28809</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>29637</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>31283</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>37706</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>32610</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>30647</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>28245</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>34432</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>38971</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>43949</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>44912</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>51383</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>66446</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>76753</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>65719</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>82882</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>104424</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>95122</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>92830</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>98177</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>98127</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>105755.903</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>117995.008</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>108756.528</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>109542.091</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>115829.696</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>148173.09</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>38564.331</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining and QuarryingRM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
         <v>10235</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>10107</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>10796</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>14111</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>13725</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>12399</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>11037</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>10426</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>13864</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>16598</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>19432</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>19055</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>23081</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>37617</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>33945</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>34169</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>41918</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>56881</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>72111</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>81759</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>88332</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>120170</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>81342</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>89793</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>95905</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>101474</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>103484</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>109064</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>103718</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>103958.504</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>121325.739</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>134833.238</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>131083.844</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>96171.783</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>123571.858</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>42296.187</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ManufacturingRM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
         <v>16058</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>20157</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>25048</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>28847</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>34524</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>38910</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>44643</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>52072</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>58684</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>70646</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>79974</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>81525</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>93045</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>109998</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>103434</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>112076</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>125332</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>144007</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>149754</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>164510</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>173804</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>189105</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>169661</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>192493</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>212618</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>224730</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>232659</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>253087</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>263131</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>272395.854</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>299797.483</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>311675.695</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>323861.646</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>315533.547</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>362670.692</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>97717.133</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ConstructionRM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
         <v>2818</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>2866</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>3475</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>4649</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>5939</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>7396</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>9054</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>10909</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>13747</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>16641</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>18474</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>14507</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>13987</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>13971</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>14241</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>14673</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>15200</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>15458</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>16107</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>16451</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>18739</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>21156</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>23187</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>28213</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>30892</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>37909</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>42692</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>48650</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>54250</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>61089.023</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>66551.682</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>70047.61</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>71067.28999999999</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>57657.452</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>55620.65</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>14793.521</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Electricity and GasRM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="n">
         <v>11677</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>12372</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>13139</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>13941</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>14769</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>17701</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>18911</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>20703</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>22160</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>25358</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>25558</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>26953.497</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>28224.849</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>30102.341</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>32556.135</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>31401.772</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>31753.81</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>8411.628000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Water, Sewerage and Waste ManagementRM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="n">
         <v>2399</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>2506</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>2701</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>2914</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>3083</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>4472</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>4765</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>4996</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>5283</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>5582</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>5928</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>6530.14</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>7151.641</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>7708.915</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>8352.759</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>9106.868</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>9894.157999999999</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>2386.507</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale TradeRM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="n">
         <v>28886</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>32471</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>37114</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>44240</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>42360</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>49457</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>58451</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>61702</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>65885</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>75008</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>81811</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>88360.179</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>96980.08900000001</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>104884.049</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>111768.481</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>106003.167</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>111405.664</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>27708.453</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Retail TradeRM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="n">
         <v>21843</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>25944</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>32481</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>39497</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>41014</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>46503</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>51238</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>55245</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>61279</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>70438</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>78196</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>86686.136</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>97496.85000000001</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>107690.055</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>116573.809</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>111256.739</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>116198.103</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>31788.601</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AccomodationRM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="n">
         <v>3926</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>4299</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>4768</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>5122</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>5159</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>5555</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>5829</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>6110</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>6428</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>6861</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>7330</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>8408.264999999999</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>9037.227000000001</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>9738.076999999999</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>10527.658</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>5248.496</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>4020.174</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>1830.956</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Food and BeverageRM</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="n">
         <v>7811</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>8842</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>10568</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>12525</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>14071</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>16309</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>18140</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>19844</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>21890</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>24481</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>27355</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>31745.181</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>35702.054</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>40595.861</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>46277.417</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>37796.372</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>35927.376</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>10911.073</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Transport and StorageRM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="n">
         <v>13871</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>14172</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>15130</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>15742</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>17405</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>19435</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>20901</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>23402</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>25474</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>24569</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>28998</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>31034</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>32953</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>34876</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>37194</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>39973</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>45234.48</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>48785.873</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>52707.165</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>57106.546</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>45555.416</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>46718.032</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>14637.214</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Infor &amp; CommunicationRM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="n">
         <v>11027</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>12316</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>13067</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>14430</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>15914</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>16999</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>18389</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>19607</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>21008</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>22332</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>39513</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>42667</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>46666</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>51097</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>56425</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>62158</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>67730.25</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>74039.29300000001</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>80359.05</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>85695.359</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>90743.698</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>96504.255</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>25143.78</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AZ14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FinanceRM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="n">
         <v>30141</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>34012</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>38624</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>42565</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>44533</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>47685</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>49114</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>52229</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>54017</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>56079</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>57053</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>61506.772</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>65511.267</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>68190.481</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>70910.30899999999</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>72356.31299999999</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>79246.295</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>19766.462</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>InsuranceRM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="n">
         <v>10590</v>
       </c>
-      <c r="BA15">
+      <c r="BA15" t="n">
         <v>10979</v>
       </c>
-      <c r="BB15">
+      <c r="BB15" t="n">
         <v>11134</v>
       </c>
-      <c r="BC15">
+      <c r="BC15" t="n">
         <v>12710</v>
       </c>
-      <c r="BD15">
+      <c r="BD15" t="n">
         <v>12928</v>
       </c>
-      <c r="BE15">
+      <c r="BE15" t="n">
         <v>13893</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" t="n">
         <v>15227</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" t="n">
         <v>17824</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" t="n">
         <v>18373</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" t="n">
         <v>19301</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>19261</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>19949.87</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>20755.463</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>22764.51</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>24116.371</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>25281.638</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>28427.722</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>7506.342</v>
       </c>
     </row>
-    <row r="16" spans="1:69">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Government ServicesRM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
         <v>15233.14634</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="n">
         <v>16118.63066</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" t="n">
         <v>17276.33101</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" t="n">
         <v>18207.18467</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="n">
         <v>18465.32056</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" t="n">
         <v>18779.777</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" t="n">
         <v>20402.12195</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="n">
         <v>20619.58188</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="n">
         <v>21986.91986</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" t="n">
         <v>22576</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" t="n">
         <v>24104</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" t="n">
         <v>27450</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" t="n">
         <v>29569</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" t="n">
         <v>31827</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" t="n">
         <v>35656</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" t="n">
         <v>40045</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" t="n">
         <v>46210</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" t="n">
         <v>54675</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" t="n">
         <v>56588</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" t="n">
         <v>64359</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" t="n">
         <v>72390</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" t="n">
         <v>85560</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" t="n">
         <v>89796</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" t="n">
         <v>95430</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" t="n">
         <v>97645</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="n">
         <v>106221.047</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" t="n">
         <v>112873.725</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" t="n">
         <v>118223.94</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" t="n">
         <v>122252.574</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" t="n">
         <v>127847.59</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="n">
         <v>134797.834</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" t="n">
         <v>33639.632</v>
       </c>
     </row>
-    <row r="17" spans="1:69">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Other ServicesRM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
         <v>11540.31649</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="n">
         <v>12604.93619</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" t="n">
         <v>13874.96172</v>
       </c>
-      <c r="AO17">
+      <c r="AO17" t="n">
         <v>15343.68045</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" t="n">
         <v>17157.42726</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" t="n">
         <v>18516.05921</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" t="n">
         <v>19816.96274</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" t="n">
         <v>20186.1562</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" t="n">
         <v>20737.93262</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" t="n">
         <v>21324</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" t="n">
         <v>22594</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" t="n">
         <v>23810</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" t="n">
         <v>24891</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" t="n">
         <v>26099</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" t="n">
         <v>27500</v>
       </c>
-      <c r="BA17">
+      <c r="BA17" t="n">
         <v>28762</v>
       </c>
-      <c r="BB17">
+      <c r="BB17" t="n">
         <v>30812</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" t="n">
         <v>33058</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" t="n">
         <v>35123</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" t="n">
         <v>36766</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" t="n">
         <v>39297</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" t="n">
         <v>41514</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" t="n">
         <v>44216</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" t="n">
         <v>46907</v>
       </c>
-      <c r="BJ17">
+      <c r="BJ17" t="n">
         <v>50193</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" t="n">
         <v>61460.354</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" t="n">
         <v>65593.041</v>
       </c>
-      <c r="BM17">
+      <c r="BM17" t="n">
         <v>70144.648</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" t="n">
         <v>75023.09600000001</v>
       </c>
-      <c r="BO17">
+      <c r="BO17" t="n">
         <v>68189.59299999999</v>
       </c>
-      <c r="BP17">
+      <c r="BP17" t="n">
         <v>66782.44899999999</v>
       </c>
-      <c r="BQ17">
+      <c r="BQ17" t="n">
         <v>17993.309</v>
       </c>
     </row>
-    <row r="18" spans="1:69">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Import DutiesRM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
         <v>2316</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" t="n">
         <v>2936</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" t="n">
         <v>3558</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" t="n">
         <v>4305</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" t="n">
         <v>5151</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" t="n">
         <v>5625</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" t="n">
         <v>6086</v>
       </c>
-      <c r="AO18">
+      <c r="AO18" t="n">
         <v>7400</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" t="n">
         <v>7559</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" t="n">
         <v>8169</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" t="n">
         <v>8815</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" t="n">
         <v>5316</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" t="n">
         <v>6459</v>
       </c>
-      <c r="AU18">
+      <c r="AU18" t="n">
         <v>5826</v>
       </c>
-      <c r="AV18">
+      <c r="AV18" t="n">
         <v>5653</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" t="n">
         <v>6605</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" t="n">
         <v>6507</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" t="n">
         <v>6396</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ18" t="n">
         <v>6372</v>
       </c>
-      <c r="BA18">
+      <c r="BA18" t="n">
         <v>5659</v>
       </c>
-      <c r="BB18">
+      <c r="BB18" t="n">
         <v>5969</v>
       </c>
-      <c r="BC18">
+      <c r="BC18" t="n">
         <v>7531</v>
       </c>
-      <c r="BD18">
+      <c r="BD18" t="n">
         <v>6964</v>
       </c>
-      <c r="BE18">
+      <c r="BE18" t="n">
         <v>7672</v>
       </c>
-      <c r="BF18">
+      <c r="BF18" t="n">
         <v>8711</v>
       </c>
-      <c r="BG18">
+      <c r="BG18" t="n">
         <v>10186</v>
       </c>
-      <c r="BH18">
+      <c r="BH18" t="n">
         <v>10763</v>
       </c>
-      <c r="BI18">
+      <c r="BI18" t="n">
         <v>11947</v>
       </c>
-      <c r="BJ18">
+      <c r="BJ18" t="n">
         <v>14699</v>
       </c>
-      <c r="BK18">
+      <c r="BK18" t="n">
         <v>16528.942</v>
       </c>
-      <c r="BL18">
+      <c r="BL18" t="n">
         <v>19280.11</v>
       </c>
-      <c r="BM18">
+      <c r="BM18" t="n">
         <v>17453.118</v>
       </c>
-      <c r="BN18">
+      <c r="BN18" t="n">
         <v>17052.749</v>
       </c>
-      <c r="BO18">
+      <c r="BO18" t="n">
         <v>15755.299</v>
       </c>
-      <c r="BP18">
+      <c r="BP18" t="n">
         <v>17022.758</v>
       </c>
-      <c r="BQ18">
+      <c r="BQ18" t="n">
         <v>4316.519</v>
       </c>
     </row>
-    <row r="19" spans="1:69">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GDP at Purchasers' ValueRM</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>4992</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>5060</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>5126</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>4896</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>5527</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>5866</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>5822</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>6127</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>7684</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>8187</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>9050</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>9623</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>9762</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>10195</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>11218</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>11829</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>12955</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>14220</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>18723</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>22858</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>22332</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>28085</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>32340</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>37886</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" t="n">
         <v>46424</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="n">
         <v>53308</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" t="n">
         <v>57613</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" t="n">
         <v>62579</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" t="n">
         <v>70444</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" t="n">
         <v>79550</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="n">
         <v>77470</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="n">
         <v>71594</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" t="n">
         <v>81085</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" t="n">
         <v>92370</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" t="n">
         <v>105233</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" t="n">
         <v>119081</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" t="n">
         <v>135124</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" t="n">
         <v>150682</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" t="n">
         <v>172194</v>
       </c>
-      <c r="AO19">
+      <c r="AO19" t="n">
         <v>195461</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" t="n">
         <v>222473</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" t="n">
         <v>253732</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" t="n">
         <v>281795</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" t="n">
         <v>283243</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" t="n">
         <v>300764</v>
       </c>
-      <c r="AU19">
+      <c r="AU19" t="n">
         <v>356401</v>
       </c>
-      <c r="AV19">
+      <c r="AV19" t="n">
         <v>352579</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" t="n">
         <v>383213</v>
       </c>
-      <c r="AX19">
+      <c r="AX19" t="n">
         <v>418769</v>
       </c>
-      <c r="AY19">
+      <c r="AY19" t="n">
         <v>474048</v>
       </c>
-      <c r="AZ19">
+      <c r="AZ19" t="n">
         <v>543578</v>
       </c>
-      <c r="BA19">
+      <c r="BA19" t="n">
         <v>596784</v>
       </c>
-      <c r="BB19">
+      <c r="BB19" t="n">
         <v>665340</v>
       </c>
-      <c r="BC19">
+      <c r="BC19" t="n">
         <v>769949</v>
       </c>
-      <c r="BD19">
+      <c r="BD19" t="n">
         <v>712857</v>
       </c>
-      <c r="BE19">
+      <c r="BE19" t="n">
         <v>821434</v>
       </c>
-      <c r="BF19">
+      <c r="BF19" t="n">
         <v>911733</v>
       </c>
-      <c r="BG19">
+      <c r="BG19" t="n">
         <v>971252</v>
       </c>
-      <c r="BH19">
+      <c r="BH19" t="n">
         <v>1018614</v>
       </c>
-      <c r="BI19">
+      <c r="BI19" t="n">
         <v>1106443</v>
       </c>
-      <c r="BJ19">
+      <c r="BJ19" t="n">
         <v>1158513</v>
       </c>
-      <c r="BK19">
+      <c r="BK19" t="n">
         <v>1249697.694</v>
       </c>
-      <c r="BL19">
+      <c r="BL19" t="n">
         <v>1372309.832</v>
       </c>
-      <c r="BM19">
+      <c r="BM19" t="n">
         <v>1447759.635</v>
       </c>
-      <c r="BN19">
+      <c r="BN19" t="n">
         <v>1512737.754</v>
       </c>
-      <c r="BO19">
+      <c r="BO19" t="n">
         <v>1418000.344</v>
       </c>
-      <c r="BP19">
+      <c r="BP19" t="n">
         <v>1545371.584</v>
       </c>
-      <c r="BQ19">
+      <c r="BQ19" t="n">
         <v>422451.83</v>
       </c>
     </row>
-    <row r="20" spans="1:69">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ServicesRM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="n">
         <v>36735</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" t="n">
         <v>41230</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" t="n">
         <v>48925</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" t="n">
         <v>55268</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" t="n">
         <v>63270</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" t="n">
         <v>72103</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" t="n">
         <v>86885</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" t="n">
         <v>98570</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" t="n">
         <v>112338</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" t="n">
         <v>128099</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" t="n">
         <v>143674</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" t="n">
         <v>147895</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" t="n">
         <v>153634</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" t="n">
         <v>175649</v>
       </c>
-      <c r="AV20">
+      <c r="AV20" t="n">
         <v>184655</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" t="n">
         <v>198582</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" t="n">
         <v>208215</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" t="n">
         <v>224889</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ20" t="n">
         <v>254322</v>
       </c>
-      <c r="BA20">
+      <c r="BA20" t="n">
         <v>277022</v>
       </c>
-      <c r="BB20">
+      <c r="BB20" t="n">
         <v>312050</v>
       </c>
-      <c r="BC20">
+      <c r="BC20" t="n">
         <v>355233</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" t="n">
         <v>365984</v>
       </c>
-      <c r="BE20">
+      <c r="BE20" t="n">
         <v>420382</v>
       </c>
-      <c r="BF20">
+      <c r="BF20" t="n">
         <v>459182</v>
       </c>
-      <c r="BG20">
+      <c r="BG20" t="n">
         <v>501830</v>
       </c>
-      <c r="BH20">
+      <c r="BH20" t="n">
         <v>536186</v>
       </c>
-      <c r="BI20">
+      <c r="BI20" t="n">
         <v>585518</v>
       </c>
-      <c r="BJ20">
+      <c r="BJ20" t="n">
         <v>624588</v>
       </c>
-      <c r="BK20">
+      <c r="BK20" t="n">
         <v>689969.468</v>
       </c>
-      <c r="BL20">
+      <c r="BL20" t="n">
         <v>747359.8100000001</v>
       </c>
-      <c r="BM20">
+      <c r="BM20" t="n">
         <v>804993.4449999999</v>
       </c>
-      <c r="BN20">
+      <c r="BN20" t="n">
         <v>860130.134</v>
       </c>
-      <c r="BO20">
+      <c r="BO20" t="n">
         <v>817052.568</v>
       </c>
-      <c r="BP20">
+      <c r="BP20" t="n">
         <v>838312.536</v>
       </c>
-      <c r="BQ20">
+      <c r="BQ20" t="n">
         <v>224764.139</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>